--- a/biology/Botanique/Coloquinte/Coloquinte.xlsx
+++ b/biology/Botanique/Coloquinte/Coloquinte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « coloquinte » est un nom vernaculaire ou commercial ambigu qui peut désigner, en français, plusieurs espèces différentes de plantes de la famille des Cucurbitaceae.
 En patois normand, le mot « coloquinte » peut également désigner une peluche coincée entre le bas du dos et les fesses. [réf. nécessaire]
@@ -512,9 +524,11 @@
           <t>Coloquinte vraie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citrullus colocynthis, la coloquinte vraie ou coloquinte officinale, est une espèce originaire d'Afrique, cultivée en Afrique du Nord, en Europe de l’ouest et en Inde pour ses propriétés médicinales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citrullus colocynthis, la coloquinte vraie ou coloquinte officinale, est une espèce originaire d'Afrique, cultivée en Afrique du Nord, en Europe de l’ouest et en Inde pour ses propriétés médicinales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Coloquintes ornementales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des espèces décoratives non comestibles sont aussi vendues sous le nom de « coloquinte ». Il s'agit en fait d'une multitude de variétés sélectionnées pour leurs formes extravagantes et leurs couleurs contrastées. Elles appartiennent le plus souvent aux espèces de courges Cucurbita pepo[2] et Cucurbita argyrosperma, ou de calebasses Lagenaria siceraria. La cire d'abeille est souvent utilisée pour la conservation des coloquintes, notamment en tant qu'éléments de décoration[3]. Les coloquintes ornementales de petite taille peuvent sécher, et ainsi se conserver éternellement.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des espèces décoratives non comestibles sont aussi vendues sous le nom de « coloquinte ». Il s'agit en fait d'une multitude de variétés sélectionnées pour leurs formes extravagantes et leurs couleurs contrastées. Elles appartiennent le plus souvent aux espèces de courges Cucurbita pepo et Cucurbita argyrosperma, ou de calebasses Lagenaria siceraria. La cire d'abeille est souvent utilisée pour la conservation des coloquintes, notamment en tant qu'éléments de décoration. Les coloquintes ornementales de petite taille peuvent sécher, et ainsi se conserver éternellement.
 La coloquinte fait partie des plantes dont la culture est recommandée dans les jardins du domaine royal par le capitulaire De Villis.
 </t>
         </is>
